--- a/Library/excelTestCasesTestPackBUGS.xlsx
+++ b/Library/excelTestCasesTestPackBUGS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationNew\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Danphe\QA\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,154 +87,154 @@
     <t>TC014</t>
   </si>
   <si>
+    <t>HighSeverityBugs</t>
+  </si>
+  <si>
+    <t>EMR-3292Default_Doctor_Anonymous_Missing_In_PharmacySale.py</t>
+  </si>
+  <si>
+    <t>EMR-3295_Pharmacy-Order-OrderList_OrderDetailsViewNotShowingOrderList.py</t>
+  </si>
+  <si>
+    <t>EMR-3357_Pharmacy_GoodsReceiptEdit.py</t>
+  </si>
+  <si>
+    <t>EMR-3363_CheckForDifferentBatchNoAlertForSimilarGoodReceiptInformation.py</t>
+  </si>
+  <si>
+    <t>EMR-3405Bill_Return_Page_is_MissingWithSelectAllItemsFeature.py</t>
+  </si>
+  <si>
+    <t>EMR-3430_CheckNewlyCreatedLedgerGroupInDrowdown.py</t>
+  </si>
+  <si>
+    <t>EMR-3490_Dispensary_Sales_RegisterOutdoorPatient.py</t>
+  </si>
+  <si>
+    <t>EMR-3502_CheckExistingRecordOnGoodReceiptEdit.py</t>
+  </si>
+  <si>
+    <t>EMR-3534_GoodsReceipt_Rate_is_not_seen_while_printingGR.py</t>
+  </si>
+  <si>
+    <t>EMR-3652_CheckDuplicatePatientRegistrationIssue.py</t>
+  </si>
+  <si>
+    <t>EMR-3655ShowWorklistInFIFOOrder.py</t>
+  </si>
+  <si>
+    <t>EMR-3664-Billing-Multiple_bills_created_due_to_multiple_button_click.py</t>
+  </si>
+  <si>
+    <t>EMR-3677UnableToSelectCreditOrganization.py</t>
+  </si>
+  <si>
+    <t>EMR-3911DontCallAdjustmentDuringSalesReturn.py</t>
+  </si>
+  <si>
+    <t>EMR-3931_Pharmacy-Report-Stock-StockSummaryReport_OpeningValue&amp;ClosingValueMismatch.py</t>
+  </si>
+  <si>
+    <t>EMR-4005_Pharmacy_CreateGoodsReceipt.py</t>
+  </si>
+  <si>
+    <t>EMR-4021Pharmacy_ReturnToSupplier_VATIsNotReturned.py</t>
+  </si>
+  <si>
+    <t>EMR-4034ItemsWithStockIsNotShownWhileDoingTransfer.py</t>
+  </si>
+  <si>
+    <t>EMR-4035UserIsNotAbleToSubmittheBabyDetailsforMultipleBabies.py</t>
+  </si>
+  <si>
+    <t>EMR-4095Procurement_PO_ViewPageIsMissingVerifiersDetails.py</t>
+  </si>
+  <si>
+    <t>EMR-4148DetailsMissingInGRViewPage(English Receipt).py</t>
+  </si>
+  <si>
+    <t>EMR-4167_GR_GridAndGRPrintShouldNotShowDifferentGoodsREceiptNo.py</t>
+  </si>
+  <si>
+    <t>EMR-4203DispensarySale_Settlement_AmountISNotDeductedInSettelemntafterSaleReturn.py</t>
+  </si>
+  <si>
+    <t>EMR-4211BrandNameIsInBracketInsteadgenericname.py</t>
+  </si>
+  <si>
+    <t>EMR-4216Billing-Settlement-unableToSettleProvisionalBillsForBedCharge.py</t>
+  </si>
+  <si>
+    <t>EMR-4254_CheckDoubleClickIssueOnNewVisit.py</t>
+  </si>
+  <si>
+    <t>EMR-4271DeathList_Multiple_Click_issue.py</t>
+  </si>
+  <si>
+    <t>EMR-4280StatusCannotBeCompleteforPartialDispatch_So_itemsCanBeDispatchedManyTimes.py</t>
+  </si>
+  <si>
+    <t>EMR-4347_Billings-Dashboard_MistakeInReturnAmountCalculationForCashAndCreditSale.py</t>
+  </si>
+  <si>
+    <t>EMR-4353_UserCollectionMisMatchDuringCreditSettelment.py</t>
+  </si>
+  <si>
+    <t>EMR-4362_CheckEmptyInvoiceOnZeroPriceAdmission.py</t>
+  </si>
+  <si>
+    <t>EMR-4559_CheckBillingDashboardForCashReturn.py</t>
+  </si>
+  <si>
+    <t>EMR-4580_IssueOnBirthDetailsEditFunctionality.py</t>
+  </si>
+  <si>
+    <t>EMR-4634AmountHistoryisSavedInTheFinalizeInvoiceAlthoughtheReturnQtyIsNotUpdated.py</t>
+  </si>
+  <si>
+    <t>EMR-4679UnableToReturnInvoiceButShowsInvoiceIsAlreadyRetrunAsInfo.py</t>
+  </si>
+  <si>
+    <t>EMR-4690DifferentAmountIngridAndShowDetailsAfterReturningSales.py</t>
+  </si>
+  <si>
+    <t>EMR-4735DiscountAmountIsMoreThanSubTotalAmount.py</t>
+  </si>
+  <si>
+    <t>EMR-4785_Pharmacy(Store)GRwithSameSupplier_invoiceNOInSameFiscalYearIsRestricateThroughGRcancelled.py</t>
+  </si>
+  <si>
+    <t>EMR-5019_Billing_Invoice_ReferredBYDoctorNameIsMissingInBillingInvoice.py</t>
+  </si>
+  <si>
+    <t>LPH-161.py</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>LPH-246.py</t>
+  </si>
+  <si>
+    <t>LPH-736.py</t>
+  </si>
+  <si>
+    <t>LPH-759.py</t>
+  </si>
+  <si>
+    <t>LPH-864.py</t>
+  </si>
+  <si>
+    <t>LPH-904.py</t>
+  </si>
+  <si>
+    <t>LPH-991.py</t>
+  </si>
+  <si>
+    <t>TC002_AccountingReport_TrialBalance_EMR-2995.py</t>
+  </si>
+  <si>
     <t>EMR-2699_WrongPaymentMethodInReturnInvoiceForCreditTpype.py</t>
-  </si>
-  <si>
-    <t>HighSeverityBugs</t>
-  </si>
-  <si>
-    <t>EMR-3292Default_Doctor_Anonymous_Missing_In_PharmacySale.py</t>
-  </si>
-  <si>
-    <t>EMR-3295_Pharmacy-Order-OrderList_OrderDetailsViewNotShowingOrderList.py</t>
-  </si>
-  <si>
-    <t>EMR-3357_Pharmacy_GoodsReceiptEdit.py</t>
-  </si>
-  <si>
-    <t>EMR-3363_CheckForDifferentBatchNoAlertForSimilarGoodReceiptInformation.py</t>
-  </si>
-  <si>
-    <t>EMR-3405Bill_Return_Page_is_MissingWithSelectAllItemsFeature.py</t>
-  </si>
-  <si>
-    <t>EMR-3430_CheckNewlyCreatedLedgerGroupInDrowdown.py</t>
-  </si>
-  <si>
-    <t>EMR-3490_Dispensary_Sales_RegisterOutdoorPatient.py</t>
-  </si>
-  <si>
-    <t>EMR-3502_CheckExistingRecordOnGoodReceiptEdit.py</t>
-  </si>
-  <si>
-    <t>EMR-3534_GoodsReceipt_Rate_is_not_seen_while_printingGR.py</t>
-  </si>
-  <si>
-    <t>EMR-3652_CheckDuplicatePatientRegistrationIssue.py</t>
-  </si>
-  <si>
-    <t>EMR-3655ShowWorklistInFIFOOrder.py</t>
-  </si>
-  <si>
-    <t>EMR-3664-Billing-Multiple_bills_created_due_to_multiple_button_click.py</t>
-  </si>
-  <si>
-    <t>EMR-3677UnableToSelectCreditOrganization.py</t>
-  </si>
-  <si>
-    <t>EMR-3911DontCallAdjustmentDuringSalesReturn.py</t>
-  </si>
-  <si>
-    <t>EMR-3931_Pharmacy-Report-Stock-StockSummaryReport_OpeningValue&amp;ClosingValueMismatch.py</t>
-  </si>
-  <si>
-    <t>EMR-4005_Pharmacy_CreateGoodsReceipt.py</t>
-  </si>
-  <si>
-    <t>EMR-4021Pharmacy_ReturnToSupplier_VATIsNotReturned.py</t>
-  </si>
-  <si>
-    <t>EMR-4034ItemsWithStockIsNotShownWhileDoingTransfer.py</t>
-  </si>
-  <si>
-    <t>EMR-4035UserIsNotAbleToSubmittheBabyDetailsforMultipleBabies.py</t>
-  </si>
-  <si>
-    <t>EMR-4095Procurement_PO_ViewPageIsMissingVerifiersDetails.py</t>
-  </si>
-  <si>
-    <t>EMR-4148DetailsMissingInGRViewPage(English Receipt).py</t>
-  </si>
-  <si>
-    <t>EMR-4167_GR_GridAndGRPrintShouldNotShowDifferentGoodsREceiptNo.py</t>
-  </si>
-  <si>
-    <t>EMR-4203DispensarySale_Settlement_AmountISNotDeductedInSettelemntafterSaleReturn.py</t>
-  </si>
-  <si>
-    <t>EMR-4211BrandNameIsInBracketInsteadgenericname.py</t>
-  </si>
-  <si>
-    <t>EMR-4216Billing-Settlement-unableToSettleProvisionalBillsForBedCharge.py</t>
-  </si>
-  <si>
-    <t>EMR-4254_CheckDoubleClickIssueOnNewVisit.py</t>
-  </si>
-  <si>
-    <t>EMR-4271DeathList_Multiple_Click_issue.py</t>
-  </si>
-  <si>
-    <t>EMR-4280StatusCannotBeCompleteforPartialDispatch_So_itemsCanBeDispatchedManyTimes.py</t>
-  </si>
-  <si>
-    <t>EMR-4347_Billings-Dashboard_MistakeInReturnAmountCalculationForCashAndCreditSale.py</t>
-  </si>
-  <si>
-    <t>EMR-4353_UserCollectionMisMatchDuringCreditSettelment.py</t>
-  </si>
-  <si>
-    <t>EMR-4362_CheckEmptyInvoiceOnZeroPriceAdmission.py</t>
-  </si>
-  <si>
-    <t>EMR-4559_CheckBillingDashboardForCashReturn.py</t>
-  </si>
-  <si>
-    <t>EMR-4580_IssueOnBirthDetailsEditFunctionality.py</t>
-  </si>
-  <si>
-    <t>EMR-4634AmountHistoryisSavedInTheFinalizeInvoiceAlthoughtheReturnQtyIsNotUpdated.py</t>
-  </si>
-  <si>
-    <t>EMR-4679UnableToReturnInvoiceButShowsInvoiceIsAlreadyRetrunAsInfo.py</t>
-  </si>
-  <si>
-    <t>EMR-4690DifferentAmountIngridAndShowDetailsAfterReturningSales.py</t>
-  </si>
-  <si>
-    <t>EMR-4735DiscountAmountIsMoreThanSubTotalAmount.py</t>
-  </si>
-  <si>
-    <t>EMR-4785_Pharmacy(Store)GRwithSameSupplier_invoiceNOInSameFiscalYearIsRestricateThroughGRcancelled.py</t>
-  </si>
-  <si>
-    <t>EMR-5019_Billing_Invoice_ReferredBYDoctorNameIsMissingInBillingInvoice.py</t>
-  </si>
-  <si>
-    <t>LPH-161.py</t>
-  </si>
-  <si>
-    <t>TC010</t>
-  </si>
-  <si>
-    <t>LPH-246.py</t>
-  </si>
-  <si>
-    <t>LPH-736.py</t>
-  </si>
-  <si>
-    <t>LPH-759.py</t>
-  </si>
-  <si>
-    <t>LPH-864.py</t>
-  </si>
-  <si>
-    <t>LPH-904.py</t>
-  </si>
-  <si>
-    <t>LPH-991.py</t>
-  </si>
-  <si>
-    <t>TC002_AccountingReport_TrialBalance_EMR-2995.py</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,13 +649,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -669,13 +669,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -729,13 +729,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -752,13 +752,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -772,13 +772,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -792,13 +792,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -812,13 +812,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -832,13 +832,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -852,13 +852,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -872,13 +872,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -892,13 +892,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -912,13 +912,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -932,13 +932,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -952,13 +952,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -992,13 +992,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -1012,13 +1012,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -1052,13 +1052,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -1092,13 +1092,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -1132,13 +1132,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -1172,13 +1172,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1192,13 +1192,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -1272,13 +1272,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -1292,13 +1292,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -1332,13 +1332,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -1372,13 +1372,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -1392,13 +1392,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
@@ -1412,13 +1412,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -1432,13 +1432,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="3">
         <v>2</v>
@@ -1512,13 +1512,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="3">
         <v>3</v>
@@ -1532,19 +1532,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="3">
         <v>4</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="3">
         <v>5</v>
@@ -1572,13 +1572,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" s="3">
         <v>6</v>
@@ -1592,13 +1592,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D49" s="3">
         <v>7</v>
